--- a/conv2d_custom_all_medium_S2.xlsx
+++ b/conv2d_custom_all_medium_S2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/One Touch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/One Touch/Convolutions_by_hand_vs_TensorFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBC24A-CACE-354D-9736-6A85E8D82849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D2DD7-68E9-2D47-B077-76DB501FC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64200" yWindow="-3220" windowWidth="30640" windowHeight="19940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="49">
   <si>
     <t xml:space="preserve">x[ : , : , 1 ] </t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve"> = 3</t>
   </si>
   <si>
-    <t>(1 x 0) + (1 x 0) + (2 x 0)</t>
-  </si>
-  <si>
     <t>(0 x -1) + (3 x 0) + (3 x 1)</t>
   </si>
   <si>
@@ -196,14 +193,27 @@
   <si>
     <t xml:space="preserve"> = 2</t>
   </si>
+  <si>
+    <t>(1 x 0) + (0 x 0) + (2 x 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 3 + 2 + 1 + 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,61 +562,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10700,7 +10711,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="R3" sqref="R3:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" thickTop="1" thickBottom="1"/>
@@ -11245,7 +11256,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:18" thickTop="1" thickBot="1">
@@ -11448,7 +11459,7 @@
         <v>25</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="2"/>
     </row>
@@ -11675,10 +11686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD2C7DB-01CC-4740-B831-91CD5913B990}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" thickTop="1" thickBottom="1"/>
@@ -11692,7 +11703,7 @@
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" thickTop="1" thickBot="1">
+    <row r="1" spans="2:18" thickTop="1" thickBot="1">
       <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
@@ -11705,7 +11716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:16" thickTop="1" thickBot="1">
+    <row r="2" spans="2:18" thickTop="1" thickBot="1">
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
@@ -11720,7 +11731,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
-    <row r="3" spans="2:16" thickTop="1" thickBot="1">
+    <row r="3" spans="2:18" thickTop="1" thickBot="1">
       <c r="B3" s="4">
         <f>x_0!A2</f>
         <v>0</v>
@@ -11770,8 +11781,11 @@
         <v>7</v>
       </c>
       <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="2:16" thickTop="1" thickBot="1">
+      <c r="R3" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" thickTop="1" thickBot="1">
       <c r="B4" s="4">
         <f>x_0!A3</f>
         <v>0</v>
@@ -11815,8 +11829,11 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="2:16" thickTop="1" thickBot="1">
+      <c r="R4" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" thickTop="1" thickBot="1">
       <c r="B5" s="4">
         <f>x_0!A4</f>
         <v>0</v>
@@ -11861,7 +11878,7 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="2:16" thickTop="1" thickBot="1">
+    <row r="6" spans="2:18" thickTop="1" thickBot="1">
       <c r="B6" s="15">
         <f>x_0!A5</f>
         <v>0</v>
@@ -11897,7 +11914,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
     </row>
-    <row r="7" spans="2:16" thickTop="1" thickBot="1">
+    <row r="7" spans="2:18" thickTop="1" thickBot="1">
       <c r="B7" s="4">
         <f>x_0!A6</f>
         <v>0</v>
@@ -11929,11 +11946,11 @@
       <c r="K7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" thickTop="1" thickBot="1">
+      <c r="L7" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" thickTop="1" thickBot="1">
       <c r="B8" s="4">
         <f>x_0!A7</f>
         <v>0</v>
@@ -11966,10 +11983,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" thickTop="1" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" thickTop="1" thickBot="1">
       <c r="B9" s="4">
         <f>x_0!A8</f>
         <v>0</v>
@@ -12005,7 +12022,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" thickTop="1" thickBot="1">
+    <row r="10" spans="2:18" thickTop="1" thickBot="1">
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
@@ -12016,7 +12033,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" thickTop="1" thickBot="1">
+    <row r="11" spans="2:18" thickTop="1" thickBot="1">
       <c r="B11" s="4">
         <f>x_1!A2</f>
         <v>0</v>
@@ -12061,7 +12078,7 @@
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
     </row>
-    <row r="12" spans="2:16" thickTop="1" thickBot="1">
+    <row r="12" spans="2:18" thickTop="1" thickBot="1">
       <c r="B12" s="4">
         <f>x_1!A3</f>
         <v>0</v>
@@ -12106,7 +12123,7 @@
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="2:16" thickTop="1" thickBot="1">
+    <row r="13" spans="2:18" thickTop="1" thickBot="1">
       <c r="B13" s="4">
         <f>x_1!A4</f>
         <v>0</v>
@@ -12151,7 +12168,7 @@
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
-    <row r="14" spans="2:16" thickTop="1" thickBot="1">
+    <row r="14" spans="2:18" thickTop="1" thickBot="1">
       <c r="B14" s="15">
         <f>x_1!A5</f>
         <v>0</v>
@@ -12187,7 +12204,7 @@
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="2:16" thickTop="1" thickBot="1">
+    <row r="15" spans="2:18" thickTop="1" thickBot="1">
       <c r="B15" s="4">
         <f>x_1!A6</f>
         <v>0</v>
@@ -12220,13 +12237,13 @@
         <v>25</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
     </row>
-    <row r="16" spans="2:16" thickTop="1" thickBot="1">
+    <row r="16" spans="2:18" thickTop="1" thickBot="1">
       <c r="B16" s="4">
         <f>x_1!A7</f>
         <v>0</v>
@@ -12259,7 +12276,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -12297,7 +12314,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -12425,7 +12442,7 @@
         <v>25</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="40"/>
     </row>
@@ -12477,7 +12494,7 @@
         <v>25</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="3" customFormat="1" thickTop="1" thickBot="1">

--- a/conv2d_custom_all_medium_S2.xlsx
+++ b/conv2d_custom_all_medium_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/One Touch/Convolutions_by_hand_vs_TensorFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D2DD7-68E9-2D47-B077-76DB501FC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDF590-13AA-3347-A784-CE725C19B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64200" yWindow="-3220" windowWidth="30640" windowHeight="19940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11689,7 +11689,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" thickTop="1" thickBottom="1"/>
@@ -11700,7 +11700,9 @@
     <col min="10" max="12" width="2.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="2"/>
     <col min="14" max="16" width="2.83203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="2"/>
+    <col min="18" max="18" width="4.6640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" thickTop="1" thickBot="1">
